--- a/THANHHUONG/DayThem.xlsx
+++ b/THANHHUONG/DayThem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$22</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentManualCount="2"/>
+  <calcPr calcId="124519" concurrentManualCount="2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -90,37 +90,28 @@
     <t>Trần Phương Dung</t>
   </si>
   <si>
-    <t>Lê Thiên Hà</t>
-  </si>
-  <si>
     <t>01284-468-521</t>
   </si>
   <si>
-    <t>01269-737-034</t>
-  </si>
-  <si>
     <t>0903-188-758</t>
   </si>
   <si>
-    <t>2017/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Hoàng Yến</t>
+    <t>2018/6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;00000&quot;\-&quot;000&quot;\-&quot;000&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;00000&quot;\-&quot;000&quot;\-&quot;000&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -128,7 +119,7 @@
     <font>
       <sz val="40"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -137,7 +128,7 @@
       <b/>
       <sz val="40"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -145,7 +136,7 @@
     <font>
       <sz val="70"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -153,7 +144,7 @@
     <font>
       <sz val="90"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -162,7 +153,7 @@
       <b/>
       <sz val="70"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -170,7 +161,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -253,7 +244,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -267,7 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -390,7 +381,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -425,7 +415,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,28 +590,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="10" zoomScaleNormal="100" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="10" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="50.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="49.5"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="199.375" style="2" customWidth="1"/>
-    <col min="3" max="14" width="38.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="39.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="87.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="103.75" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="2.625" style="2"/>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="199.42578125" style="2" customWidth="1"/>
+    <col min="3" max="14" width="38.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="39.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="107.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="103.7109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="2.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -630,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -647,7 +636,7 @@
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="10">
@@ -696,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="10"/>
@@ -715,7 +704,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="4" spans="1:17" ht="140.25" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -740,7 +729,7 @@
       </c>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="5" spans="1:17" ht="140.25" customHeight="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -765,7 +754,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="6" spans="1:17" ht="140.25" customHeight="1">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -790,7 +779,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="7" spans="1:17" ht="140.25" customHeight="1">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -815,7 +804,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="8" spans="1:17" ht="140.25" customHeight="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -840,7 +829,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="9" spans="1:17" ht="140.25" customHeight="1">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -865,7 +854,7 @@
       </c>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="10" spans="1:17" ht="140.25" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -890,7 +879,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="11" spans="1:17" ht="140.25" customHeight="1">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -915,7 +904,7 @@
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="12" spans="1:17" ht="140.25" customHeight="1">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -936,11 +925,11 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="13" spans="1:17" ht="140.25" customHeight="1">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -961,17 +950,13 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:17" ht="140.25" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -985,18 +970,12 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="P14" s="6"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
+    <row r="15" spans="1:17" ht="140.25" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1013,7 +992,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="16" spans="1:17" ht="140.25" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
@@ -1032,7 +1011,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="17" spans="1:17" ht="140.25" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
@@ -1051,7 +1030,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="18" spans="1:17" ht="140.25" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
@@ -1070,7 +1049,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="19" spans="1:17" ht="140.25" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
@@ -1089,7 +1068,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="20" spans="1:17" ht="140.25" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
@@ -1108,7 +1087,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="21" spans="1:17" ht="140.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
@@ -1127,11 +1106,11 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" ht="140.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="23" spans="1:17" ht="140.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:Q1"/>
@@ -1142,29 +1121,29 @@
     <mergeCell ref="P2:P3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="13" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="14" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
